--- a/Dissertation Graphs/RNN Offline Graphs.xlsx
+++ b/Dissertation Graphs/RNN Offline Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Dissertation Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D169F81F-B86E-4C93-BA9E-3B0FD4D1DF0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C558992-43F4-48A7-A14B-E58CCDF88423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D468815-7203-4649-8ECC-FA2540EB9C3C}"/>
   </bookViews>
@@ -1378,6 +1378,7 @@
         <c:axId val="1745309855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2057,6 +2058,7 @@
         <c:axId val="1745309855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -3407,6 +3409,7 @@
         <c:axId val="1745309855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -3702,6 +3705,20 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1745796063"/>
+        <c:axId val="1745291967"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -3841,8 +3858,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1745796063"/>
-        <c:axId val="1745291967"/>
+        <c:axId val="1204107056"/>
+        <c:axId val="1204092496"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1745796063"/>
@@ -3980,7 +3997,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1400" b="1"/>
-                  <a:t>Nitrate Concentration (g/L)</a:t>
+                  <a:t>Nitrate Concentration (mg/L)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4057,6 +4074,66 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1745796063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1204092496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204107056"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1204107056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1204092496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8014,8 +8091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B89DBDA-50D9-4F6F-BAA9-2C21C8522EE7}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC46" sqref="AC46"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Dissertation Graphs/RNN Offline Graphs.xlsx
+++ b/Dissertation Graphs/RNN Offline Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Dissertation Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C558992-43F4-48A7-A14B-E58CCDF88423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CBE758-7D7B-45C7-A5AF-00805618B860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D468815-7203-4649-8ECC-FA2540EB9C3C}"/>
   </bookViews>
@@ -8091,8 +8091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B89DBDA-50D9-4F6F-BAA9-2C21C8522EE7}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR19" sqref="AR19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="B57">
-        <f t="shared" si="14"/>
+        <f>ABS((J27-B27)/J27)*100</f>
         <v>12.368220024705264</v>
       </c>
       <c r="C57">
